--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>705038.1295047684</v>
+        <v>705822.2754427971</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5153296.731040938</v>
+        <v>5153296.731040939</v>
       </c>
     </row>
     <row r="11">
@@ -659,73 +661,73 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D2" t="n">
+      <c r="X2" t="n">
+        <v>169.0708280266249</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.38439726656337</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>13.20628120410765</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -899,70 +901,70 @@
         <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="Y5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>53.6747228092714</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1026,16 +1028,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>48.32160706581262</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,58 +1150,58 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I8" t="n">
-        <v>169.0708280266249</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1269,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>90.87689320356448</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1333,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,73 +1372,73 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E11" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S11" t="n">
-        <v>31.15099944008764</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>51.46078308992365</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1464,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1509,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>148.9496720772061</v>
       </c>
       <c r="Y12" t="n">
         <v>205.5178444382804</v>
@@ -1549,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,7 +1572,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="14">
@@ -1628,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>169.0708280266249</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
         <v>205.5178444382804</v>
@@ -1664,7 +1666,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1707,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>119.3034809802377</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1786,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1810,7 +1812,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1901,7 +1903,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>112.3289263072337</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2123,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,7 +2143,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>84.14750936819266</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,31 +2317,31 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>7.778646031951277</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,16 +2362,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2406,13 +2408,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>103.7035670991123</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>42.55037277817333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2561,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2576,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>90.16983368421225</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2691,16 +2693,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>68.29221919223492</v>
       </c>
     </row>
     <row r="28">
@@ -2789,70 +2791,70 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2871,19 +2873,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>48.34508484837221</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2959,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,14 +3040,14 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>112.3289263072337</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="33">
@@ -3108,22 +3110,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>71.27563719245528</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>119.0842638272618</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>202.2946864288972</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D35" t="n">
         <v>241.0142888776591</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3348,7 +3350,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>118.6023970406846</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3360,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>14.31642251146666</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>241.0142888776591</v>
@@ -3515,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>94.41048699370604</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -3579,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>1.8542299924609</v>
       </c>
       <c r="F39" t="n">
-        <v>98.87912478176035</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3752,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>66.38439726656337</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3876,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>47.29627918133471</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
@@ -3940,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>102.6193464791835</v>
       </c>
       <c r="D45" t="n">
-        <v>48.32160706581265</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4071,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="C2" t="n">
-        <v>406.8838132313431</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D2" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4343,7 +4345,7 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4367,13 +4369,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y2" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.8288664974407</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="C3" t="n">
-        <v>165.3758372163137</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I3" t="n">
         <v>16.44142755506243</v>
@@ -4413,16 +4415,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
         <v>822.0713777531216</v>
@@ -4431,28 +4433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>707.5621703220602</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="V3" t="n">
-        <v>614.4775954922324</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="W3" t="n">
-        <v>406.8838132313431</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="X3" t="n">
-        <v>406.8838132313431</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="Y3" t="n">
-        <v>406.8838132313431</v>
+        <v>505.3755756808262</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4568,19 +4570,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N5" t="n">
-        <v>672.8764276104736</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4601,16 +4603,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>70.6583192815992</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>70.6583192815992</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>70.6583192815992</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>70.6583192815992</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>70.6583192815992</v>
       </c>
       <c r="G6" t="n">
         <v>16.44142755506243</v>
@@ -4647,22 +4649,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4674,22 +4676,22 @@
         <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>648.6540332037905</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U6" t="n">
-        <v>599.8443290969091</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V6" t="n">
-        <v>392.2505468360198</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W6" t="n">
-        <v>184.6567645751305</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X6" t="n">
-        <v>184.6567645751305</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.6567645751305</v>
+        <v>238.8736563016672</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4811,13 +4813,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4841,13 +4843,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y8" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>107.4951893506917</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C9" t="n">
-        <v>107.4951893506917</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D9" t="n">
-        <v>107.4951893506917</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E9" t="n">
-        <v>107.4951893506917</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F9" t="n">
-        <v>107.4951893506917</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G9" t="n">
-        <v>107.4951893506917</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H9" t="n">
         <v>107.4951893506917</v>
@@ -4887,19 +4889,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>232.5025681519757</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>232.5025681519757</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4917,16 +4919,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>730.2765361333595</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>522.6827538724702</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X9" t="n">
-        <v>315.088971611581</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y9" t="n">
-        <v>107.4951893506917</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4981,31 +4983,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5020,16 @@
         <v>431.628992076841</v>
       </c>
       <c r="C11" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
         <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
         <v>16.44142755506243</v>
@@ -5045,13 +5047,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5063,25 +5065,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="T11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="U11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X11" t="n">
         <v>639.2227743377304</v>
-      </c>
-      <c r="T11" t="n">
-        <v>639.2227743377304</v>
-      </c>
-      <c r="U11" t="n">
-        <v>639.2227743377304</v>
-      </c>
-      <c r="V11" t="n">
-        <v>639.2227743377304</v>
-      </c>
-      <c r="W11" t="n">
-        <v>639.2227743377304</v>
-      </c>
-      <c r="X11" t="n">
-        <v>431.628992076841</v>
       </c>
       <c r="Y11" t="n">
         <v>431.628992076841</v>
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>272.8449139228332</v>
+        <v>256.4295990119429</v>
       </c>
       <c r="C12" t="n">
-        <v>272.8449139228332</v>
+        <v>256.4295990119429</v>
       </c>
       <c r="D12" t="n">
-        <v>272.8449139228332</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="E12" t="n">
-        <v>220.8643249431123</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F12" t="n">
-        <v>220.8643249431123</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H12" t="n">
         <v>107.4951893506917</v>
@@ -5121,16 +5123,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>345.7514872519972</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>549.2141532458947</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O12" t="n">
         <v>752.6768192397923</v>
@@ -5145,25 +5147,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>648.6540332037905</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X12" t="n">
-        <v>648.6540332037905</v>
+        <v>464.0233812728322</v>
       </c>
       <c r="Y12" t="n">
-        <v>441.0602509429012</v>
+        <v>256.4295990119429</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5218,31 +5220,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R13" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S13" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T13" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U13" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V13" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W13" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X13" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5297,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>651.2927635848137</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>443.6989813239244</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U14" t="n">
-        <v>236.1051990630351</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5361,46 +5363,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O15" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U15" t="n">
-        <v>137.7041268545529</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V15" t="n">
-        <v>17.19556020784815</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.19242108896862</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C16" t="n">
-        <v>61.19242108896862</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D16" t="n">
-        <v>61.19242108896862</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E16" t="n">
-        <v>61.19242108896862</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F16" t="n">
-        <v>61.19242108896862</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G16" t="n">
-        <v>61.19242108896862</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H16" t="n">
-        <v>61.19242108896862</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I16" t="n">
-        <v>61.19242108896862</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5458,28 +5460,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>61.19242108896862</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S16" t="n">
-        <v>61.19242108896862</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T16" t="n">
-        <v>61.19242108896862</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U16" t="n">
-        <v>61.19242108896862</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V16" t="n">
-        <v>61.19242108896862</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W16" t="n">
-        <v>61.19242108896862</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X16" t="n">
-        <v>61.19242108896862</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y16" t="n">
-        <v>61.19242108896862</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="17">
@@ -5534,19 +5536,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>132.7447050367114</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
         <v>19.28114311021272</v>
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,16 +5603,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5713,7 +5715,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5834,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5853,25 +5855,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>879.0596713003406</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>705.6423267510095</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>705.6423267510095</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>705.6423267510095</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V21" t="n">
-        <v>470.4902185192667</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W21" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
         <v>19.28114311021272</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>495.259035872464</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C23" t="n">
-        <v>495.259035872464</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D23" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>360.2295980564601</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="C24" t="n">
-        <v>360.2295980564601</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="D24" t="n">
-        <v>360.2295980564601</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="E24" t="n">
-        <v>200.9921430510046</v>
+        <v>124.032220988104</v>
       </c>
       <c r="F24" t="n">
-        <v>200.9921430510046</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>62.26131763362014</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6075,10 +6077,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>360.2295980564601</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W24" t="n">
-        <v>360.2295980564601</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X24" t="n">
-        <v>360.2295980564601</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="Y24" t="n">
-        <v>360.2295980564601</v>
+        <v>283.2696759935595</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>111.1159158480613</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
         <v>20.03527576299844</v>
@@ -6309,16 +6311,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>562.4161926976942</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>318.9674160535941</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>111.1159158480613</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y27" t="n">
-        <v>111.1159158480613</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>515.0172522330638</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>366.0828425718125</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>206.845387566357</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6543,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>913.4938269565423</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>913.4938269565423</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>678.3417187247995</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>434.8929420806995</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="31">
@@ -6607,7 +6609,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
         <v>829.5248650203655</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.8157010833278</v>
+        <v>414.6641751762832</v>
       </c>
       <c r="C33" t="n">
-        <v>165.8157010833278</v>
+        <v>240.2111458951562</v>
       </c>
       <c r="D33" t="n">
-        <v>165.8157010833278</v>
+        <v>91.27673623390493</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>91.27673623390493</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>91.27673623390493</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>91.27673623390493</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6780,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>569.1831463351384</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>569.1831463351384</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>334.0310381033958</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W33" t="n">
-        <v>334.0310381033958</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X33" t="n">
-        <v>334.0310381033958</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y33" t="n">
-        <v>334.0310381033958</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
         <v>506.1786963984129</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>426.903709034957</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="C36" t="n">
-        <v>252.45067975383</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D36" t="n">
-        <v>132.6502787026334</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E36" t="n">
-        <v>132.6502787026334</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F36" t="n">
-        <v>132.6502787026334</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7020,7 +7022,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
         <v>542.809531908403</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>949.5961226707709</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>747.4095280295369</v>
       </c>
       <c r="U36" t="n">
-        <v>634.6640077999109</v>
+        <v>519.185909765926</v>
       </c>
       <c r="V36" t="n">
-        <v>634.6640077999109</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="W36" t="n">
-        <v>634.6640077999109</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="X36" t="n">
-        <v>634.6640077999109</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="Y36" t="n">
-        <v>426.903709034957</v>
+        <v>284.0338015341832</v>
       </c>
     </row>
     <row r="37">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>358.0940480307835</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>114.6452713866835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>114.6452713866835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>114.6452713866835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>114.6452713866835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G38" t="n">
-        <v>114.6452713866835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S38" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T38" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>452.8495312167552</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="C39" t="n">
-        <v>278.3965019356282</v>
+        <v>170.0885123598083</v>
       </c>
       <c r="D39" t="n">
-        <v>278.3965019356282</v>
+        <v>21.15410269855707</v>
       </c>
       <c r="E39" t="n">
-        <v>119.1590469301727</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>660.701031422288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>452.8495312167552</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y39" t="n">
-        <v>452.8495312167552</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="40">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7412,16 +7414,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7445,16 +7447,16 @@
         <v>431.628992076841</v>
       </c>
       <c r="V41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>339.8288664974407</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D42" t="n">
         <v>16.44142755506243</v>
@@ -7491,22 +7493,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7524,16 +7526,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>774.2973583780361</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
-        <v>566.7035761171468</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>566.7035761171468</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y42" t="n">
-        <v>359.1097938562575</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R43" t="n">
-        <v>687.5390872628509</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S43" t="n">
-        <v>687.5390872628509</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T43" t="n">
-        <v>687.5390872628509</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C44" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7679,19 +7681,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X44" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y44" t="n">
-        <v>639.2227743377304</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>65.2511316619439</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="C45" t="n">
-        <v>65.2511316619439</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7728,16 +7730,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>626.8294255367553</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O45" t="n">
         <v>822.0713777531216</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
   </sheetData>
@@ -7991,10 +7993,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8225,13 +8227,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N6" t="n">
-        <v>222.9614904056321</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,16 +8461,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>230.174158102173</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
@@ -8702,7 +8704,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8769,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>269.2526134200356</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -9009,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,13 +9491,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O21" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9723,13 +9725,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9957,19 +9959,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,10 +10670,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,10 +11062,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11072,7 +11074,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>360.3696370111358</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>328.5558052311782</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
@@ -11388,7 +11390,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>339.8103375922893</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22547,13 +22549,13 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>200.9102526910243</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22568,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>200.6602726518442</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.148786383304</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22671,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>158.4768898997302</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22726,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>71.32518834398851</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22787,7 +22789,7 @@
         <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22841,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>146.7321410888975</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748161</v>
       </c>
     </row>
     <row r="6">
@@ -22875,7 +22877,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>83.66879435393923</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22914,16 +22916,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>177.6197750151622</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22960,7 +22962,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23036,13 +23038,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23081,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23100,22 +23102,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23157,16 +23159,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>141.9236939458608</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23258,19 +23260,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23303,10 +23305,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>177.8690701461577</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23334,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>106.1842973654773</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23352,7 +23354,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23385,7 +23387,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23397,10 +23399,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>56.82331312627136</v>
       </c>
       <c r="Y12" t="n">
         <v>0.1648513390239543</v>
@@ -23437,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>71.32518834398851</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183328</v>
       </c>
     </row>
     <row r="14">
@@ -23516,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.94924155962048</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
         <v>17.57800512585095</v>
@@ -23552,7 +23554,7 @@
         <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23595,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U15" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>113.4971061691875</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23674,7 +23676,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>71.32518834398851</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23789,7 +23791,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>215.4233321629012</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,19 +23861,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23953,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -24011,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24029,7 +24031,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>136.9555830739709</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>16.01032478445048</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,31 +24205,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>331.6961560838159</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,16 +24250,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24294,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>41.36564529427154</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>69.68507145832314</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24333,19 +24335,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366916</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24449,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>224.9573404408503</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24464,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>82.53866530410349</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24570,7 +24572,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24579,16 +24581,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>137.3904765850695</v>
       </c>
     </row>
     <row r="28">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,16 +24688,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24725,22 +24727,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24759,19 +24761,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>96.72412754501167</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>150.1070334262686</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24847,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G31" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>302.9738112079013</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24962,13 +24964,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="33">
@@ -24996,22 +24998,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>40.95980704404118</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>81.08046486755977</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25062,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>162.9782053421103</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D35" t="n">
         <v>113.6687527430239</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25236,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>28.84266852395415</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25248,10 +25250,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>157.3667485923712</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>124.2586028933485</v>
@@ -25403,10 +25405,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>245.0643151220611</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25436,7 +25438,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25467,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>155.7908504629401</v>
       </c>
       <c r="F39" t="n">
-        <v>46.19008761162353</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25515,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25530,7 +25532,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25685,10 +25687,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>100.148786383304</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25764,7 +25766,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>185.5043079680906</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
@@ -25828,10 +25830,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228173</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25919,19 +25921,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.2178212748162</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>70.08915250913219</v>
       </c>
       <c r="D45" t="n">
-        <v>99.1234584988261</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25959,7 +25961,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>434139.6000483395</v>
+        <v>434139.6000483396</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>434139.6000483393</v>
+        <v>434139.6000483395</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>434139.6000483393</v>
+        <v>434139.6000483395</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>457299.1191315953</v>
+        <v>457299.1191315952</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>457299.1191315952</v>
+        <v>457299.1191315953</v>
       </c>
     </row>
     <row r="13">
@@ -26317,7 +26319,7 @@
         <v>165645.5239266781</v>
       </c>
       <c r="D2" t="n">
-        <v>165645.5239266782</v>
+        <v>165645.5239266781</v>
       </c>
       <c r="E2" t="n">
         <v>165645.5239266781</v>
@@ -26329,7 +26331,7 @@
         <v>174468.7061578989</v>
       </c>
       <c r="H2" t="n">
-        <v>174468.706157899</v>
+        <v>174468.7061578989</v>
       </c>
       <c r="I2" t="n">
         <v>174468.7061578989</v>
@@ -26347,7 +26349,7 @@
         <v>174468.7061578989</v>
       </c>
       <c r="N2" t="n">
-        <v>174468.706157899</v>
+        <v>174468.7061578989</v>
       </c>
       <c r="O2" t="n">
         <v>165645.5239266781</v>
@@ -26427,19 +26429,19 @@
         <v>47787.18911168983</v>
       </c>
       <c r="F4" t="n">
-        <v>47787.18911168983</v>
+        <v>47787.18911168982</v>
       </c>
       <c r="G4" t="n">
-        <v>50385.00392753456</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="H4" t="n">
-        <v>50385.00392753456</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="I4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="J4" t="n">
-        <v>50385.00392753456</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="K4" t="n">
         <v>50385.00392753458</v>
@@ -26448,10 +26450,10 @@
         <v>50385.00392753457</v>
       </c>
       <c r="M4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="N4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="O4" t="n">
         <v>47787.18911168983</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2861.493291451043</v>
+        <v>2861.493291451028</v>
       </c>
       <c r="C6" t="n">
-        <v>71735.24987314087</v>
+        <v>71735.24987314083</v>
       </c>
       <c r="D6" t="n">
-        <v>71735.24987314091</v>
+        <v>71735.24987314089</v>
       </c>
       <c r="E6" t="n">
         <v>105362.8498731408</v>
@@ -26534,7 +26536,7 @@
         <v>105362.8498731408</v>
       </c>
       <c r="G6" t="n">
-        <v>99700.99049243561</v>
+        <v>99700.99049243558</v>
       </c>
       <c r="H6" t="n">
         <v>109430.0334666027</v>
@@ -26555,7 +26557,7 @@
         <v>109430.0334666027</v>
       </c>
       <c r="N6" t="n">
-        <v>109430.0334666028</v>
+        <v>109430.0334666027</v>
       </c>
       <c r="O6" t="n">
         <v>105362.8498731408</v>
@@ -34711,10 +34713,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
@@ -34945,13 +34947,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N6" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,16 +35181,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,10 +35257,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35415,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
@@ -35422,7 +35424,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>127.1185794980173</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,10 +35971,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36209,13 +36211,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O21" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36443,13 +36445,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,10 +37390,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,10 +37782,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37792,7 +37794,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>130.2714255894491</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
@@ -38108,7 +38110,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>197.2140931478448</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>705822.2754427971</v>
+        <v>601589.7771793538</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5153296.731040939</v>
+        <v>5153296.731040938</v>
       </c>
     </row>
     <row r="11">
@@ -658,11 +658,11 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
-        <v>169.0708280266249</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="3">
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>13.20628120410765</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="6">
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>53.6747228092714</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>14.09932709679958</v>
+      </c>
+      <c r="Y6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,73 +1132,73 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>181.0201173812374</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1372,73 +1372,73 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="U11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>125.4581578642649</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>148.9496720772061</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V14" t="n">
-        <v>21.16030022554292</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>62.56282600373781</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>181.0201173812374</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,19 +1806,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1888,31 +1888,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V17" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -1982,13 +1982,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>130.7406573088296</v>
       </c>
       <c r="W18" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
         <v>202.2946864288972</v>
       </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>150.4149128677507</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>104.7383832473596</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2247,61 +2247,61 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>103.7035670991123</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,73 +2554,73 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="Y26" t="n">
         <v>241.0142888776591</v>
@@ -2642,13 +2642,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.146653388152563</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>68.29221919223492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2882,19 +2882,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>48.34508484837221</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>56.80931493161753</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3028,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.285385643442</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="33">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>62.82409118961541</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3119,16 +3119,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>71.27563719245528</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3195,55 +3195,55 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,70 +3265,70 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3359,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>88.19812805758562</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>14.31642251146666</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3435,49 +3435,49 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1.8542299924609</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>66.38439726656337</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3942,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3982,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>181.0201173812374</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>102.6193464791835</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4067,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>104.1252322629233</v>
+      </c>
+      <c r="X45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.5178444382804</v>
@@ -4149,52 +4149,52 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4372,10 +4372,10 @@
         <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>443.6989813239244</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y2" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>505.3755756808262</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>505.3755756808262</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>505.3755756808262</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>505.3755756808262</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
         <v>16.44142755506243</v>
@@ -4412,19 +4412,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
         <v>822.0713777531216</v>
@@ -4436,25 +4436,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>707.5621703220602</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>505.3755756808262</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U3" t="n">
-        <v>505.3755756808262</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V3" t="n">
-        <v>505.3755756808262</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="W3" t="n">
-        <v>505.3755756808262</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>505.3755756808262</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>505.3755756808262</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4512,13 +4512,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
         <v>16.44142755506243</v>
@@ -4570,19 +4570,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4594,25 +4594,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V5" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X5" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y5" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.6583192815992</v>
+        <v>499.0663215028962</v>
       </c>
       <c r="C6" t="n">
-        <v>70.6583192815992</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D6" t="n">
-        <v>70.6583192815992</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E6" t="n">
-        <v>70.6583192815992</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>70.6583192815992</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
         <v>16.44142755506243</v>
@@ -4649,49 +4649,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>446.4674385625565</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>238.8736563016672</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>238.8736563016672</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W6" t="n">
-        <v>238.8736563016672</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X6" t="n">
-        <v>238.8736563016672</v>
+        <v>706.6601037637855</v>
       </c>
       <c r="Y6" t="n">
-        <v>238.8736563016672</v>
+        <v>499.0663215028962</v>
       </c>
     </row>
     <row r="7">
@@ -4743,19 +4743,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
         <v>16.44142755506243</v>
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.0352098159517</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D8" t="n">
         <v>16.44142755506243</v>
@@ -4807,49 +4807,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X8" t="n">
-        <v>639.2227743377304</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y8" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>814.3015730003187</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4889,19 +4889,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4913,22 +4913,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X9" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y9" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4986,28 +4986,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
         <v>16.44142755506243</v>
@@ -5047,13 +5047,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>396.792197863116</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X11" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>256.4295990119429</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="C12" t="n">
-        <v>256.4295990119429</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="D12" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="E12" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="F12" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="G12" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N12" t="n">
-        <v>752.1869855945927</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O12" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5147,25 +5147,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>521.9286212196845</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>314.3348389587952</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="X12" t="n">
-        <v>464.0233812728322</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="Y12" t="n">
-        <v>256.4295990119429</v>
+        <v>106.7410566979059</v>
       </c>
     </row>
     <row r="13">
@@ -5217,31 +5217,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
         <v>16.44142755506243</v>
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C14" t="n">
         <v>16.44142755506243</v>
@@ -5281,19 +5281,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5308,22 +5308,22 @@
         <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
+        <v>453.0030327087026</v>
+      </c>
+      <c r="U14" t="n">
+        <v>453.0030327087026</v>
+      </c>
+      <c r="V14" t="n">
+        <v>453.0030327087026</v>
+      </c>
+      <c r="W14" t="n">
         <v>245.4092504478133</v>
       </c>
-      <c r="U14" t="n">
-        <v>37.81546818692397</v>
-      </c>
-      <c r="V14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="W14" t="n">
-        <v>16.44142755506243</v>
-      </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E15" t="n">
         <v>16.44142755506243</v>
@@ -5363,16 +5363,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M15" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>548.724319600695</v>
       </c>
-      <c r="N15" t="n">
-        <v>639.4279001397708</v>
-      </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P15" t="n">
         <v>822.0713777531216</v>
@@ -5384,25 +5384,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T15" t="n">
-        <v>639.2227743377304</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U15" t="n">
-        <v>431.628992076841</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V15" t="n">
-        <v>224.0352098159517</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W15" t="n">
-        <v>16.44142755506243</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X15" t="n">
-        <v>16.44142755506243</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>238.8736563016672</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5454,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="18">
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C18" t="n">
         <v>19.28114311021272</v>
@@ -5603,10 +5603,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N18" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N18" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>360.2295980564601</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>125.0774898247174</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="19">
@@ -5703,16 +5703,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="V20" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V20" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>171.2153985321831</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5834,16 +5834,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5861,22 +5861,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>360.2295980564601</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>125.0774898247174</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>339.4307355522512</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>283.2696759935595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>283.2696759935595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>283.2696759935595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>124.032220988104</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6077,16 +6077,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>526.7184526376595</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2696759935595</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>283.2696759935595</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>283.2696759935595</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6180,13 +6180,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
         <v>19.28114311021272</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
         <v>19.28114311021272</v>
@@ -6265,13 +6265,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>179.4208655039616</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>179.4208655039616</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>179.4208655039616</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>20.18341049850608</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>20.18341049850608</v>
       </c>
       <c r="G27" t="n">
         <v>20.03527576299844</v>
@@ -6311,16 +6311,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X27" t="n">
-        <v>257.2326523711826</v>
+        <v>347.6362025240296</v>
       </c>
       <c r="Y27" t="n">
-        <v>188.2506127830665</v>
+        <v>347.6362025240296</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>689.4702815141908</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C30" t="n">
-        <v>515.0172522330638</v>
+        <v>622.424473941237</v>
       </c>
       <c r="D30" t="n">
-        <v>366.0828425718125</v>
+        <v>473.4900642799857</v>
       </c>
       <c r="E30" t="n">
-        <v>206.845387566357</v>
+        <v>314.2526092745302</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>167.7180513014152</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>167.7180513014152</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6551,43 +6551,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W30" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X30" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y30" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6679,10 +6679,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
         <v>262.7299197543128</v>
@@ -6691,7 +6691,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>414.6641751762832</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C33" t="n">
-        <v>240.2111458951562</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="D33" t="n">
-        <v>91.27673623390493</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E33" t="n">
-        <v>91.27673623390493</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F33" t="n">
-        <v>91.27673623390493</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G33" t="n">
-        <v>91.27673623390493</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6782,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L33" t="n">
-        <v>178.8501590306595</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>790.6398109613051</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X33" t="n">
-        <v>790.6398109613051</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y33" t="n">
-        <v>582.8795121963512</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="34">
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
         <v>19.28114311021272</v>
@@ -6891,19 +6891,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>284.0338015341832</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="C36" t="n">
-        <v>109.5807722530562</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="D36" t="n">
-        <v>109.5807722530562</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="E36" t="n">
-        <v>109.5807722530562</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="F36" t="n">
-        <v>109.5807722530562</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="G36" t="n">
-        <v>109.5807722530562</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H36" t="n">
         <v>109.5807722530562</v>
@@ -7025,13 +7025,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>949.5961226707709</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>747.4095280295369</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>519.185909765926</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>284.0338015341832</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W36" t="n">
-        <v>284.0338015341832</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X36" t="n">
-        <v>284.0338015341832</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="Y36" t="n">
-        <v>284.0338015341832</v>
+        <v>312.0389260854624</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>344.5415416409353</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>170.0885123598083</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>21.15410269855707</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7262,10 +7262,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7286,19 +7286,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>512.7568786610034</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7356,7 +7356,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
         <v>19.28114311021272</v>
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D41" t="n">
         <v>16.44142755506243</v>
@@ -7414,10 +7414,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
         <v>379.753706324525</v>
@@ -7438,25 +7438,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U41" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V41" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="W41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>339.8288664974407</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>165.3758372163137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
         <v>16.44142755506243</v>
@@ -7496,16 +7496,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N42" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
         <v>752.6768192397923</v>
@@ -7523,19 +7523,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7590,16 +7590,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>63.94135112442973</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>63.94135112442973</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>63.94135112442973</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>199.2900309704538</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C44" t="n">
-        <v>199.2900309704538</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
         <v>16.44142755506243</v>
@@ -7651,10 +7651,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V44" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W44" t="n">
-        <v>406.8838132313431</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X44" t="n">
-        <v>406.8838132313431</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y44" t="n">
-        <v>199.2900309704538</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>233.4664686820119</v>
+        <v>301.706810945562</v>
       </c>
       <c r="C45" t="n">
-        <v>129.8105631474831</v>
+        <v>301.706810945562</v>
       </c>
       <c r="D45" t="n">
-        <v>129.8105631474831</v>
+        <v>301.706810945562</v>
       </c>
       <c r="E45" t="n">
-        <v>129.8105631474831</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F45" t="n">
-        <v>129.8105631474831</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G45" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7730,22 +7730,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N45" t="n">
-        <v>752.1869855945927</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W45" t="n">
-        <v>441.0602509429012</v>
+        <v>716.8943754673405</v>
       </c>
       <c r="X45" t="n">
-        <v>441.0602509429012</v>
+        <v>509.3005932064513</v>
       </c>
       <c r="Y45" t="n">
-        <v>233.4664686820119</v>
+        <v>301.706810945562</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7993,10 +7993,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>150.567170896597</v>
       </c>
       <c r="L3" t="n">
         <v>344.0722242181546</v>
@@ -8072,10 +8072,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8218,10 +8218,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8467,10 +8467,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>360.3696370111358</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>212.7243290316435</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8549,10 +8549,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
@@ -8704,7 +8704,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
@@ -8783,13 +8783,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>143.091025904242</v>
+        <v>155.3219763666824</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -8944,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9011,19 +9011,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9251,13 +9251,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9482,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,19 +9959,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10199,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10910,13 +10910,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11062,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11144,19 +11144,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11299,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11390,13 +11390,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>200.6602726518442</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748161</v>
       </c>
     </row>
     <row r="3">
@@ -22637,16 +22637,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22676,19 +22676,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>158.4768898997302</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>131.644910854424</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
@@ -22834,7 +22834,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22843,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.2178212748161</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -22862,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>83.66879435393923</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22928,10 +22928,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>191.6736581066779</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -22998,7 +22998,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>333.52274139514</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23065,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>188.7109832972317</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23102,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,16 +23153,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>46.42735402472914</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23205,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23311,22 +23311,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>156.7228403034423</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23342,7 +23342,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23360,7 +23360,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>100.4832242167099</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>56.82331312627136</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.11912650183328</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>361.5735414379376</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23548,16 +23548,16 @@
         <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>306.591958244592</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>103.9703576461295</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23582,7 +23582,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23624,19 +23624,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>19.14461131358425</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23679,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,19 +23694,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23776,31 +23776,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23813,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23861,7 +23861,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,13 +23870,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>102.0599298405957</v>
       </c>
       <c r="W18" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24019,19 +24019,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>22.29358612056504</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24101,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>146.95659991356</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24265,7 +24265,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24293,10 +24293,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>41.36564529427154</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24338,10 +24338,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24505,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>157.445715035027</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>145.2236497783945</v>
@@ -24530,13 +24530,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>137.1968637750581</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24572,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>137.3904765850695</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24660,10 +24660,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24727,22 +24727,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266928</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24770,19 +24770,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>96.72412754501167</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>55.42612930487893</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24858,7 +24858,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9525530126116</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="33">
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>109.8844077987003</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25007,16 +25007,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>40.95980704404118</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25046,7 +25046,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25058,13 +25058,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>134.469915878258</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25171,7 +25171,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25207,7 +25207,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25247,10 +25247,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>49.14538910562501</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,19 +25283,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>157.3667485923712</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25365,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25399,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>385.6922903709871</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25438,13 +25438,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>146.6038018839531</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>155.7908504629401</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25526,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25596,10 +25596,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25633,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25678,19 +25678,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
         <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>100.148786383304</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25830,10 +25830,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2941050228173</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25870,13 +25870,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>173.6629242394455</v>
+        <v>183.6536234539903</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25921,13 +25921,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>70.08915250913219</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25955,13 +25955,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25994,22 +25994,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>147.5697508979963</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
         <v>0.1648513390239543</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26082,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>434139.6000483395</v>
+        <v>434139.6000483393</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>434139.6000483395</v>
+        <v>434139.6000483396</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>434139.6000483395</v>
+        <v>434139.6000483393</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>457299.1191315952</v>
+        <v>457299.1191315953</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>457299.1191315953</v>
+        <v>457299.1191315952</v>
       </c>
     </row>
     <row r="13">
@@ -26331,28 +26331,28 @@
         <v>174468.7061578989</v>
       </c>
       <c r="H2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="I2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="J2" t="n">
         <v>174468.7061578989</v>
       </c>
       <c r="K2" t="n">
+        <v>174468.7061578989</v>
+      </c>
+      <c r="L2" t="n">
         <v>174468.706157899</v>
       </c>
-      <c r="L2" t="n">
-        <v>174468.7061578989</v>
-      </c>
       <c r="M2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.7061578991</v>
       </c>
       <c r="N2" t="n">
         <v>174468.7061578989</v>
       </c>
       <c r="O2" t="n">
-        <v>165645.5239266781</v>
+        <v>165645.5239266782</v>
       </c>
       <c r="P2" t="n">
         <v>165645.5239266781</v>
@@ -26423,28 +26423,28 @@
         <v>47787.18911168983</v>
       </c>
       <c r="D4" t="n">
-        <v>47787.18911168982</v>
+        <v>47787.18911168983</v>
       </c>
       <c r="E4" t="n">
         <v>47787.18911168983</v>
       </c>
       <c r="F4" t="n">
-        <v>47787.18911168982</v>
+        <v>47787.18911168983</v>
       </c>
       <c r="G4" t="n">
+        <v>50385.00392753458</v>
+      </c>
+      <c r="H4" t="n">
         <v>50385.00392753457</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>50385.00392753458</v>
-      </c>
-      <c r="I4" t="n">
-        <v>50385.00392753457</v>
       </c>
       <c r="J4" t="n">
         <v>50385.00392753457</v>
       </c>
       <c r="K4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="L4" t="n">
         <v>50385.00392753457</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2861.493291451028</v>
+        <v>-9776.668863409475</v>
       </c>
       <c r="C6" t="n">
-        <v>71735.24987314083</v>
+        <v>59097.08771828035</v>
       </c>
       <c r="D6" t="n">
-        <v>71735.24987314089</v>
+        <v>59097.08771828032</v>
       </c>
       <c r="E6" t="n">
-        <v>105362.8498731408</v>
+        <v>92724.68771828033</v>
       </c>
       <c r="F6" t="n">
-        <v>105362.8498731408</v>
+        <v>92724.6877182803</v>
       </c>
       <c r="G6" t="n">
-        <v>99700.99049243558</v>
+        <v>87482.97987239512</v>
       </c>
       <c r="H6" t="n">
-        <v>109430.0334666027</v>
+        <v>97212.02284656226</v>
       </c>
       <c r="I6" t="n">
-        <v>109430.0334666027</v>
+        <v>97212.02284656225</v>
       </c>
       <c r="J6" t="n">
-        <v>55657.52257639327</v>
+        <v>43439.51195635278</v>
       </c>
       <c r="K6" t="n">
-        <v>109430.0334666027</v>
+        <v>97212.02284656223</v>
       </c>
       <c r="L6" t="n">
-        <v>109430.0334666027</v>
+        <v>97212.02284656226</v>
       </c>
       <c r="M6" t="n">
-        <v>109430.0334666027</v>
+        <v>97212.02284656235</v>
       </c>
       <c r="N6" t="n">
-        <v>109430.0334666027</v>
+        <v>97212.02284656223</v>
       </c>
       <c r="O6" t="n">
-        <v>105362.8498731408</v>
+        <v>92724.68771828039</v>
       </c>
       <c r="P6" t="n">
-        <v>105362.8498731408</v>
+        <v>92724.68771828036</v>
       </c>
     </row>
   </sheetData>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
@@ -34713,10 +34713,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="L3" t="n">
         <v>205.5178444382804</v>
@@ -34792,10 +34792,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34953,7 +34953,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35187,10 +35187,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>130.2714255894491</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,10 +35257,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>21.52426467247106</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35269,10 +35269,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
@@ -35424,7 +35424,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
@@ -35503,13 +35503,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>0.494781459797586</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35664,7 +35664,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>169.9067907798017</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>226.4350751681936</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36919,19 +36919,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>55.51629994036225</v>
-      </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37393,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37630,13 +37630,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37782,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37864,19 +37864,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38019,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38098,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38110,13 +38110,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
